--- a/db_structure/023. Purchase Invoice.xlsx
+++ b/db_structure/023. Purchase Invoice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -648,6 +648,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -683,6 +700,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +950,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
@@ -930,7 +964,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
         <v>90</v>
@@ -944,7 +978,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
         <v>87</v>
@@ -958,7 +992,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
         <v>88</v>
@@ -972,7 +1006,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
         <v>89</v>
@@ -1000,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>

--- a/db_structure/023. Purchase Invoice.xlsx
+++ b/db_structure/023. Purchase Invoice.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{811F60DC-7D72-4957-A7C5-FD3EA82F3A05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="159">
   <si>
     <t>Dcoument ID</t>
   </si>
@@ -305,9 +306,6 @@
     <t>pirh_ptym_id</t>
   </si>
   <si>
-    <t>pirh_locm_id</t>
-  </si>
-  <si>
     <t>pirh_stam_id</t>
   </si>
   <si>
@@ -486,12 +484,21 @@
   </si>
   <si>
     <t>det_ptm_con</t>
+  </si>
+  <si>
+    <t>pirh_ptml_id</t>
+  </si>
+  <si>
+    <t>New Version Myswl</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,11 +899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,9 +914,10 @@
     <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -918,14 +926,14 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -934,7 +942,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -947,8 +955,11 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>161</v>
       </c>
@@ -961,8 +972,11 @@
       <c r="F7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>162</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="F8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>163</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="F9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>164</v>
       </c>
@@ -1003,8 +1023,11 @@
       <c r="F10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>165</v>
       </c>
@@ -1017,11 +1040,14 @@
       <c r="F11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -1031,10 +1057,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -1136,14 +1162,14 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
         <v>70</v>
@@ -1154,7 +1180,7 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1169,10 +1195,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
         <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1183,10 +1209,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1198,14 +1224,14 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -1216,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
@@ -1230,7 +1256,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>28</v>
@@ -1244,7 +1270,7 @@
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -1258,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
@@ -1272,7 +1298,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -1286,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1297,16 +1323,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
         <v>144</v>
-      </c>
-      <c r="C18" t="s">
-        <v>145</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1314,7 +1340,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -1328,7 +1354,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -1346,7 +1372,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -1358,7 +1384,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1376,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -1397,7 +1423,7 @@
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1409,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1427,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1439,7 +1465,7 @@
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1457,7 +1483,7 @@
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -1472,38 +1498,38 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1529,7 +1555,7 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1547,7 +1573,7 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1565,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -1579,7 +1605,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
         <v>37</v>
@@ -1594,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
         <v>37</v>
@@ -1608,7 +1634,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
         <v>37</v>
@@ -1631,7 +1657,7 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -1643,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -1661,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -1673,7 +1699,7 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -1691,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -1709,7 +1735,7 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
         <v>37</v>
@@ -1723,7 +1749,7 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -1746,7 +1772,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -1758,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -1776,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -1788,7 +1814,7 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -1806,7 +1832,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -1824,7 +1850,7 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
         <v>37</v>
@@ -1838,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" t="s">
         <v>37</v>
@@ -1861,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -1873,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -1891,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
@@ -1903,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D63" t="s">
         <v>28</v>
